--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{309F12BB-7FB9-41DB-8AF4-F7CFCDD87CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85D5C97-0EA5-4740-B177-883A1C41DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1488" yWindow="660" windowWidth="17280" windowHeight="8964" xr2:uid="{82F4CF6E-2AE5-4904-9CD5-BE63FA2F8297}"/>
+    <workbookView xWindow="4416" yWindow="2688" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,40 +34,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Topics Covered</t>
+  </si>
   <si>
     <t>Sl No.</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Start Topic</t>
-  </si>
-  <si>
-    <t>End Topic</t>
-  </si>
-  <si>
-    <t>Topics Skipped</t>
-  </si>
-  <si>
-    <t>Doubts</t>
-  </si>
-  <si>
-    <t>Encapsulation</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Method Overloading</t>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Namespace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +81,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,11 +116,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,137 +449,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65926AE9-B69B-4DC4-B9FA-711ED0D81AA7}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="20.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40" style="4" customWidth="1"/>
+    <col min="4" max="5" width="13.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45154</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45154</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45154</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45154</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45154</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">
+      <formula1>"Not started, In Progress, Completed, Paused"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{88549692-ED6B-4D07-9EDA-86C48217D56A}">
+      <formula1>"Theory, C#, Tools, Database, Agile, Misc."</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classification: Public</oddFooter>
   </headerFooter>

--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85D5C97-0EA5-4740-B177-883A1C41DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8AAD3-6101-4201-8A74-67A398CAD7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4416" yWindow="2688" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Category</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Namespace</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,6 +556,21 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45155</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45155</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">

--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8AAD3-6101-4201-8A74-67A398CAD7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FBBB20-DA5C-4E48-9CD1-2366C204ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="2688" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,9 +564,6 @@
         <v>11</v>
       </c>
       <c r="D5" s="6">
-        <v>45155</v>
-      </c>
-      <c r="E5" s="6">
         <v>45155</v>
       </c>
       <c r="F5" s="5" t="s">

--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FBBB20-DA5C-4E48-9CD1-2366C204ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F9931-B973-45DE-9C9F-FC50854095D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Category</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +576,18 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F9931-B973-45DE-9C9F-FC50854095D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F131A-A2D3-408C-896E-FB3267C1AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="4416" yWindow="2688" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="6">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>

--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F131A-A2D3-408C-896E-FB3267C1AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555CFCF-F741-407E-9C8C-862A911EF43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4416" yWindow="2688" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Category</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>for 18,21, 22-08 more string methods are practiced</t>
   </si>
 </sst>
 </file>
@@ -459,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,10 +479,11 @@
     <col min="3" max="3" width="40" style="4" customWidth="1"/>
     <col min="4" max="5" width="13.21875" style="6" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="18.44140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,8 +502,11 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -516,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -536,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -556,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -572,8 +582,11 @@
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -590,12 +603,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>

--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555CFCF-F741-407E-9C8C-862A911EF43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D962BF-2BCC-4EDC-961B-BB058C8A5733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4416" yWindow="2688" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Category</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>for 18,21, 22-08 more string methods are practiced</t>
+  </si>
+  <si>
+    <t>String Puzzles</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +610,18 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45161</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">

--- a/C#SharpLearning/LogBook_ManaswiniRay.xlsx
+++ b/C#SharpLearning/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D962BF-2BCC-4EDC-961B-BB058C8A5733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF55D008-66D6-425C-9DEF-0CE8F4BFC1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4416" yWindow="2688" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Category</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>String Puzzles</t>
+  </si>
+  <si>
+    <t>Design Patterns</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,6 +585,9 @@
       <c r="D5" s="6">
         <v>45155</v>
       </c>
+      <c r="E5" s="6">
+        <v>45159</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
@@ -603,7 +609,7 @@
         <v>45160</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -626,6 +632,18 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45162</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
